--- a/assets/template-excel/template-ltdbb-g002.xlsx
+++ b/assets/template-excel/template-ltdbb-g002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reporting\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3F4EBD-0EBC-43D5-A086-B7376206529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D2D48-90A1-425F-8518-EBBCA2B66D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="4485" windowWidth="2400" windowHeight="585" xr2:uid="{139E5DE6-A47D-4B48-B925-E662DCF40A74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{139E5DE6-A47D-4B48-B925-E662DCF40A74}"/>
   </bookViews>
   <sheets>
     <sheet name="G002" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Transaksi Pengiriman Uang dari Luar Negeri ke Indonesia</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Nomor Form :</t>
-  </si>
-  <si>
-    <t>G0002</t>
   </si>
   <si>
     <t>Periode:</t>
@@ -91,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="000000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -238,17 +235,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -306,9 +303,6 @@
       <sheetName val="G0003"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
-    <definedNames>
-      <definedName name="CO3_Click"/>
-    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
@@ -3983,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C44A9B-C571-4F89-B5C6-5358BBE78E86}">
   <dimension ref="A1:L18501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,6 +3990,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4019,57 +4014,55 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="8"/>
       <c r="I3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
       <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
